--- a/bio_diversity/static/data_templates/coldbrook-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-pit_tagging.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. STW</t>
         </r>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">eg. EQU
 </t>
@@ -68,187 +68,201 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Optioanl, mark distinguishing group.
+Eg. Adipose Clip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Eg. 1999 FP</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional,  can specify unit as either (cm) or (mm)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, can specify unit as either (g) or (kg)</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, calculated in application.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, precocity.  Should be a 1/0, Y/N value</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. AB, CD</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>eg. 1999</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>eg. Jan</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>eg 1</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -259,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Fish #</t>
   </si>
@@ -374,6 +388,9 @@
   <si>
     <t>Collection</t>
   </si>
+  <si>
+    <t>Mark</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,12 +449,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -895,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -910,21 +921,21 @@
     <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" style="9" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="4.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.85546875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="9" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="9"/>
-    <col min="21" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="9" customWidth="1"/>
-    <col min="24" max="29" width="9.140625" style="9"/>
-    <col min="30" max="30" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="9"/>
+    <col min="6" max="8" width="11.140625" style="9" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="9" customWidth="1"/>
+    <col min="12" max="13" width="4.42578125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.85546875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" style="9" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="9"/>
+    <col min="22" max="23" width="10.7109375" style="9" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="9" customWidth="1"/>
+    <col min="25" max="30" width="9.140625" style="9"/>
+    <col min="31" max="31" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -944,79 +955,82 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" s="17"/>
@@ -1056,13 +1070,14 @@
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
+      <c r="AO2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1"/>
+  <autoFilter ref="A1:AE1"/>
   <sortState ref="A2:AG285">
     <sortCondition ref="A2:A285"/>
   </sortState>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>

--- a/bio_diversity/static/data_templates/coldbrook-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-pit_tagging.xlsx
@@ -374,9 +374,6 @@
 ddmmyy</t>
   </si>
   <si>
-    <t>life Stage</t>
-  </si>
-  <si>
     <t>PIT Tag #</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
   </si>
 </sst>
 </file>
@@ -909,10 +909,10 @@
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
@@ -955,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>4</v>
@@ -982,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>19</v>
@@ -1009,7 +1009,7 @@
         <v>22</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="14" t="s">
         <v>24</v>
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="AC1" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>12</v>

--- a/bio_diversity/static/data_templates/coldbrook-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-pit_tagging.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F62390-083B-43C8-8868-C7B3E0498C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7035" windowHeight="1815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stoyel, Quentin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Fish #</t>
   </si>
@@ -391,15 +392,72 @@
   <si>
     <t>Lifestage</t>
   </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Vial Number, optional</t>
+  </si>
+  <si>
+    <t>Pit tag as in database</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Eg. Bonell. Optional</t>
+  </si>
+  <si>
+    <t>Eg. Adipose Clip. Must match code in database. Optional</t>
+  </si>
+  <si>
+    <t>Eg. BSR</t>
+  </si>
+  <si>
+    <t>eg. 1999 FP</t>
+  </si>
+  <si>
+    <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+  </si>
+  <si>
+    <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
+  </si>
+  <si>
+    <t>Eg. AB, CD</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (cm) or (mm), optional</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (g) or (kg), optional</t>
+  </si>
+  <si>
+    <t>Optional. Precocity Y/N</t>
+  </si>
+  <si>
+    <t>Optional. Calculated in application</t>
+  </si>
+  <si>
+    <t>Optional. In Celcius.</t>
+  </si>
+  <si>
+    <t>Optional. Must match treatment code in database</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +514,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -503,11 +567,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,11 +626,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,14 +988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:RU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,13 +1004,20 @@
     <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
-    <col min="6" max="8" width="11.140625" style="9" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="9" customWidth="1"/>
-    <col min="12" max="13" width="4.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9" style="9" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46.85546875" style="9" customWidth="1"/>
     <col min="16" max="16" width="27.42578125" style="9" customWidth="1"/>
-    <col min="17" max="21" width="9.140625" style="9"/>
+    <col min="17" max="17" width="25.28515625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="9" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="9"/>
     <col min="22" max="23" width="10.7109375" style="9" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" style="9" customWidth="1"/>
     <col min="25" max="30" width="9.140625" style="9"/>
@@ -935,7 +1025,7 @@
     <col min="32" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:489" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -945,7 +1035,7 @@
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1030,51 +1120,541 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" s="17"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
+    <row r="2" spans="1:489" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="20"/>
+      <c r="CU2" s="20"/>
+      <c r="CV2" s="20"/>
+      <c r="CW2" s="20"/>
+      <c r="CX2" s="20"/>
+      <c r="CY2" s="20"/>
+      <c r="CZ2" s="20"/>
+      <c r="DA2" s="20"/>
+      <c r="DB2" s="20"/>
+      <c r="DC2" s="20"/>
+      <c r="DD2" s="20"/>
+      <c r="DE2" s="20"/>
+      <c r="DF2" s="20"/>
+      <c r="DG2" s="20"/>
+      <c r="DH2" s="20"/>
+      <c r="DI2" s="20"/>
+      <c r="DJ2" s="20"/>
+      <c r="DK2" s="20"/>
+      <c r="DL2" s="20"/>
+      <c r="DM2" s="20"/>
+      <c r="DN2" s="20"/>
+      <c r="DO2" s="20"/>
+      <c r="DP2" s="20"/>
+      <c r="DQ2" s="20"/>
+      <c r="DR2" s="20"/>
+      <c r="DS2" s="20"/>
+      <c r="DT2" s="20"/>
+      <c r="DU2" s="20"/>
+      <c r="DV2" s="20"/>
+      <c r="DW2" s="20"/>
+      <c r="DX2" s="20"/>
+      <c r="DY2" s="20"/>
+      <c r="DZ2" s="20"/>
+      <c r="EA2" s="20"/>
+      <c r="EB2" s="20"/>
+      <c r="EC2" s="20"/>
+      <c r="ED2" s="20"/>
+      <c r="EE2" s="20"/>
+      <c r="EF2" s="20"/>
+      <c r="EG2" s="20"/>
+      <c r="EH2" s="20"/>
+      <c r="EI2" s="20"/>
+      <c r="EJ2" s="20"/>
+      <c r="EK2" s="20"/>
+      <c r="EL2" s="20"/>
+      <c r="EM2" s="20"/>
+      <c r="EN2" s="20"/>
+      <c r="EO2" s="20"/>
+      <c r="EP2" s="20"/>
+      <c r="EQ2" s="20"/>
+      <c r="ER2" s="20"/>
+      <c r="ES2" s="20"/>
+      <c r="ET2" s="20"/>
+      <c r="EU2" s="20"/>
+      <c r="EV2" s="20"/>
+      <c r="EW2" s="20"/>
+      <c r="EX2" s="20"/>
+      <c r="EY2" s="20"/>
+      <c r="EZ2" s="20"/>
+      <c r="FA2" s="20"/>
+      <c r="FB2" s="20"/>
+      <c r="FC2" s="20"/>
+      <c r="FD2" s="20"/>
+      <c r="FE2" s="20"/>
+      <c r="FF2" s="20"/>
+      <c r="FG2" s="20"/>
+      <c r="FH2" s="20"/>
+      <c r="FI2" s="20"/>
+      <c r="FJ2" s="20"/>
+      <c r="FK2" s="20"/>
+      <c r="FL2" s="20"/>
+      <c r="FM2" s="20"/>
+      <c r="FN2" s="20"/>
+      <c r="FO2" s="20"/>
+      <c r="FP2" s="20"/>
+      <c r="FQ2" s="20"/>
+      <c r="FR2" s="20"/>
+      <c r="FS2" s="20"/>
+      <c r="FT2" s="20"/>
+      <c r="FU2" s="20"/>
+      <c r="FV2" s="20"/>
+      <c r="FW2" s="20"/>
+      <c r="FX2" s="20"/>
+      <c r="FY2" s="20"/>
+      <c r="FZ2" s="20"/>
+      <c r="GA2" s="20"/>
+      <c r="GB2" s="20"/>
+      <c r="GC2" s="20"/>
+      <c r="GD2" s="20"/>
+      <c r="GE2" s="20"/>
+      <c r="GF2" s="20"/>
+      <c r="GG2" s="20"/>
+      <c r="GH2" s="20"/>
+      <c r="GI2" s="20"/>
+      <c r="GJ2" s="20"/>
+      <c r="GK2" s="20"/>
+      <c r="GL2" s="20"/>
+      <c r="GM2" s="20"/>
+      <c r="GN2" s="20"/>
+      <c r="GO2" s="20"/>
+      <c r="GP2" s="20"/>
+      <c r="GQ2" s="20"/>
+      <c r="GR2" s="20"/>
+      <c r="GS2" s="20"/>
+      <c r="GT2" s="20"/>
+      <c r="GU2" s="20"/>
+      <c r="GV2" s="20"/>
+      <c r="GW2" s="20"/>
+      <c r="GX2" s="20"/>
+      <c r="GY2" s="20"/>
+      <c r="GZ2" s="20"/>
+      <c r="HA2" s="20"/>
+      <c r="HB2" s="20"/>
+      <c r="HC2" s="20"/>
+      <c r="HD2" s="20"/>
+      <c r="HE2" s="20"/>
+      <c r="HF2" s="20"/>
+      <c r="HG2" s="20"/>
+      <c r="HH2" s="20"/>
+      <c r="HI2" s="20"/>
+      <c r="HJ2" s="20"/>
+      <c r="HK2" s="20"/>
+      <c r="HL2" s="20"/>
+      <c r="HM2" s="20"/>
+      <c r="HN2" s="20"/>
+      <c r="HO2" s="20"/>
+      <c r="HP2" s="20"/>
+      <c r="HQ2" s="20"/>
+      <c r="HR2" s="20"/>
+      <c r="HS2" s="20"/>
+      <c r="HT2" s="20"/>
+      <c r="HU2" s="20"/>
+      <c r="HV2" s="20"/>
+      <c r="HW2" s="20"/>
+      <c r="HX2" s="20"/>
+      <c r="HY2" s="20"/>
+      <c r="HZ2" s="20"/>
+      <c r="IA2" s="20"/>
+      <c r="IB2" s="20"/>
+      <c r="IC2" s="20"/>
+      <c r="ID2" s="20"/>
+      <c r="IE2" s="20"/>
+      <c r="IF2" s="20"/>
+      <c r="IG2" s="20"/>
+      <c r="IH2" s="20"/>
+      <c r="II2" s="20"/>
+      <c r="IJ2" s="20"/>
+      <c r="IK2" s="20"/>
+      <c r="IL2" s="20"/>
+      <c r="IM2" s="20"/>
+      <c r="IN2" s="20"/>
+      <c r="IO2" s="20"/>
+      <c r="IP2" s="20"/>
+      <c r="IQ2" s="20"/>
+      <c r="IR2" s="20"/>
+      <c r="IS2" s="20"/>
+      <c r="IT2" s="20"/>
+      <c r="IU2" s="20"/>
+      <c r="IV2" s="20"/>
+      <c r="IW2" s="20"/>
+      <c r="IX2" s="20"/>
+      <c r="IY2" s="20"/>
+      <c r="IZ2" s="20"/>
+      <c r="JA2" s="20"/>
+      <c r="JB2" s="20"/>
+      <c r="JC2" s="20"/>
+      <c r="JD2" s="20"/>
+      <c r="JE2" s="20"/>
+      <c r="JF2" s="20"/>
+      <c r="JG2" s="20"/>
+      <c r="JH2" s="20"/>
+      <c r="JI2" s="20"/>
+      <c r="JJ2" s="20"/>
+      <c r="JK2" s="20"/>
+      <c r="JL2" s="20"/>
+      <c r="JM2" s="20"/>
+      <c r="JN2" s="20"/>
+      <c r="JO2" s="20"/>
+      <c r="JP2" s="20"/>
+      <c r="JQ2" s="20"/>
+      <c r="JR2" s="20"/>
+      <c r="JS2" s="20"/>
+      <c r="JT2" s="20"/>
+      <c r="JU2" s="20"/>
+      <c r="JV2" s="20"/>
+      <c r="JW2" s="20"/>
+      <c r="JX2" s="20"/>
+      <c r="JY2" s="20"/>
+      <c r="JZ2" s="20"/>
+      <c r="KA2" s="20"/>
+      <c r="KB2" s="20"/>
+      <c r="KC2" s="20"/>
+      <c r="KD2" s="20"/>
+      <c r="KE2" s="20"/>
+      <c r="KF2" s="20"/>
+      <c r="KG2" s="20"/>
+      <c r="KH2" s="20"/>
+      <c r="KI2" s="20"/>
+      <c r="KJ2" s="20"/>
+      <c r="KK2" s="20"/>
+      <c r="KL2" s="20"/>
+      <c r="KM2" s="20"/>
+      <c r="KN2" s="20"/>
+      <c r="KO2" s="20"/>
+      <c r="KP2" s="20"/>
+      <c r="KQ2" s="20"/>
+      <c r="KR2" s="20"/>
+      <c r="KS2" s="20"/>
+      <c r="KT2" s="20"/>
+      <c r="KU2" s="20"/>
+      <c r="KV2" s="20"/>
+      <c r="KW2" s="20"/>
+      <c r="KX2" s="20"/>
+      <c r="KY2" s="20"/>
+      <c r="KZ2" s="20"/>
+      <c r="LA2" s="20"/>
+      <c r="LB2" s="20"/>
+      <c r="LC2" s="20"/>
+      <c r="LD2" s="20"/>
+      <c r="LE2" s="20"/>
+      <c r="LF2" s="20"/>
+      <c r="LG2" s="20"/>
+      <c r="LH2" s="20"/>
+      <c r="LI2" s="20"/>
+      <c r="LJ2" s="20"/>
+      <c r="LK2" s="20"/>
+      <c r="LL2" s="20"/>
+      <c r="LM2" s="20"/>
+      <c r="LN2" s="20"/>
+      <c r="LO2" s="20"/>
+      <c r="LP2" s="20"/>
+      <c r="LQ2" s="20"/>
+      <c r="LR2" s="20"/>
+      <c r="LS2" s="20"/>
+      <c r="LT2" s="20"/>
+      <c r="LU2" s="20"/>
+      <c r="LV2" s="20"/>
+      <c r="LW2" s="20"/>
+      <c r="LX2" s="20"/>
+      <c r="LY2" s="20"/>
+      <c r="LZ2" s="20"/>
+      <c r="MA2" s="20"/>
+      <c r="MB2" s="20"/>
+      <c r="MC2" s="20"/>
+      <c r="MD2" s="20"/>
+      <c r="ME2" s="20"/>
+      <c r="MF2" s="20"/>
+      <c r="MG2" s="20"/>
+      <c r="MH2" s="20"/>
+      <c r="MI2" s="20"/>
+      <c r="MJ2" s="20"/>
+      <c r="MK2" s="20"/>
+      <c r="ML2" s="20"/>
+      <c r="MM2" s="20"/>
+      <c r="MN2" s="20"/>
+      <c r="MO2" s="20"/>
+      <c r="MP2" s="20"/>
+      <c r="MQ2" s="20"/>
+      <c r="MR2" s="20"/>
+      <c r="MS2" s="20"/>
+      <c r="MT2" s="20"/>
+      <c r="MU2" s="20"/>
+      <c r="MV2" s="20"/>
+      <c r="MW2" s="20"/>
+      <c r="MX2" s="20"/>
+      <c r="MY2" s="20"/>
+      <c r="MZ2" s="20"/>
+      <c r="NA2" s="20"/>
+      <c r="NB2" s="20"/>
+      <c r="NC2" s="20"/>
+      <c r="ND2" s="20"/>
+      <c r="NE2" s="20"/>
+      <c r="NF2" s="20"/>
+      <c r="NG2" s="20"/>
+      <c r="NH2" s="20"/>
+      <c r="NI2" s="20"/>
+      <c r="NJ2" s="20"/>
+      <c r="NK2" s="20"/>
+      <c r="NL2" s="20"/>
+      <c r="NM2" s="20"/>
+      <c r="NN2" s="20"/>
+      <c r="NO2" s="20"/>
+      <c r="NP2" s="20"/>
+      <c r="NQ2" s="20"/>
+      <c r="NR2" s="20"/>
+      <c r="NS2" s="20"/>
+      <c r="NT2" s="20"/>
+      <c r="NU2" s="20"/>
+      <c r="NV2" s="20"/>
+      <c r="NW2" s="20"/>
+      <c r="NX2" s="20"/>
+      <c r="NY2" s="20"/>
+      <c r="NZ2" s="20"/>
+      <c r="OA2" s="20"/>
+      <c r="OB2" s="20"/>
+      <c r="OC2" s="20"/>
+      <c r="OD2" s="20"/>
+      <c r="OE2" s="20"/>
+      <c r="OF2" s="20"/>
+      <c r="OG2" s="20"/>
+      <c r="OH2" s="20"/>
+      <c r="OI2" s="20"/>
+      <c r="OJ2" s="20"/>
+      <c r="OK2" s="20"/>
+      <c r="OL2" s="20"/>
+      <c r="OM2" s="20"/>
+      <c r="ON2" s="20"/>
+      <c r="OO2" s="20"/>
+      <c r="OP2" s="20"/>
+      <c r="OQ2" s="20"/>
+      <c r="OR2" s="20"/>
+      <c r="OS2" s="20"/>
+      <c r="OT2" s="20"/>
+      <c r="OU2" s="20"/>
+      <c r="OV2" s="20"/>
+      <c r="OW2" s="20"/>
+      <c r="OX2" s="20"/>
+      <c r="OY2" s="20"/>
+      <c r="OZ2" s="20"/>
+      <c r="PA2" s="20"/>
+      <c r="PB2" s="20"/>
+      <c r="PC2" s="20"/>
+      <c r="PD2" s="20"/>
+      <c r="PE2" s="20"/>
+      <c r="PF2" s="20"/>
+      <c r="PG2" s="20"/>
+      <c r="PH2" s="20"/>
+      <c r="PI2" s="20"/>
+      <c r="PJ2" s="20"/>
+      <c r="PK2" s="20"/>
+      <c r="PL2" s="20"/>
+      <c r="PM2" s="20"/>
+      <c r="PN2" s="20"/>
+      <c r="PO2" s="20"/>
+      <c r="PP2" s="20"/>
+      <c r="PQ2" s="20"/>
+      <c r="PR2" s="20"/>
+      <c r="PS2" s="20"/>
+      <c r="PT2" s="20"/>
+      <c r="PU2" s="20"/>
+      <c r="PV2" s="20"/>
+      <c r="PW2" s="20"/>
+      <c r="PX2" s="20"/>
+      <c r="PY2" s="20"/>
+      <c r="PZ2" s="20"/>
+      <c r="QA2" s="20"/>
+      <c r="QB2" s="20"/>
+      <c r="QC2" s="20"/>
+      <c r="QD2" s="20"/>
+      <c r="QE2" s="20"/>
+      <c r="QF2" s="20"/>
+      <c r="QG2" s="20"/>
+      <c r="QH2" s="20"/>
+      <c r="QI2" s="20"/>
+      <c r="QJ2" s="20"/>
+      <c r="QK2" s="20"/>
+      <c r="QL2" s="20"/>
+      <c r="QM2" s="20"/>
+      <c r="QN2" s="20"/>
+      <c r="QO2" s="20"/>
+      <c r="QP2" s="20"/>
+      <c r="QQ2" s="20"/>
+      <c r="QR2" s="20"/>
+      <c r="QS2" s="20"/>
+      <c r="QT2" s="20"/>
+      <c r="QU2" s="20"/>
+      <c r="QV2" s="20"/>
+      <c r="QW2" s="20"/>
+      <c r="QX2" s="20"/>
+      <c r="QY2" s="20"/>
+      <c r="QZ2" s="20"/>
+      <c r="RA2" s="20"/>
+      <c r="RB2" s="20"/>
+      <c r="RC2" s="20"/>
+      <c r="RD2" s="20"/>
+      <c r="RE2" s="20"/>
+      <c r="RF2" s="20"/>
+      <c r="RG2" s="20"/>
+      <c r="RH2" s="20"/>
+      <c r="RI2" s="20"/>
+      <c r="RJ2" s="20"/>
+      <c r="RK2" s="20"/>
+      <c r="RL2" s="20"/>
+      <c r="RM2" s="20"/>
+      <c r="RN2" s="20"/>
+      <c r="RO2" s="20"/>
+      <c r="RP2" s="20"/>
+      <c r="RQ2" s="20"/>
+      <c r="RR2" s="20"/>
+      <c r="RS2" s="20"/>
+      <c r="RT2" s="20"/>
+      <c r="RU2" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
-  <sortState ref="A2:AG285">
+  <autoFilter ref="A1:AE1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG285">
     <sortCondition ref="A2:A285"/>
   </sortState>
   <conditionalFormatting sqref="K1">
@@ -1088,7 +1668,7 @@
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1 D3:D1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"'TRUE'"</formula>
     </cfRule>
@@ -1096,7 +1676,7 @@
       <formula>"""TRUE"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C3:C1048576 C1 V2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
